--- a/dy_qT/expdata/10012.xlsx
+++ b/dy_qT/expdata/10012.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10630"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/avp5627/GIT/fitpack2/database/dy_qT/expdata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39F26C54-0800-0141-82AF-D6BFC9B8F200}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30E3130B-6E1B-074E-966E-447128C3BC1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7360" yWindow="1820" windowWidth="28040" windowHeight="17440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -84,9 +84,6 @@
     <t>value</t>
   </si>
   <si>
-    <t>1/sig dsig/dpT</t>
-  </si>
-  <si>
     <t>units</t>
   </si>
   <si>
@@ -124,6 +121,9 @@
   </si>
   <si>
     <t>born</t>
+  </si>
+  <si>
+    <t>pb</t>
   </si>
 </sst>
 </file>
@@ -975,7 +975,7 @@
   <dimension ref="A1:Y34"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2:M34"/>
+      <selection activeCell="T2" sqref="T2:T34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1018,19 +1018,19 @@
         <v>16</v>
       </c>
       <c r="L1" t="s">
+        <v>25</v>
+      </c>
+      <c r="M1" t="s">
         <v>26</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>27</v>
-      </c>
-      <c r="N1" t="s">
-        <v>28</v>
       </c>
       <c r="O1" t="s">
         <v>0</v>
       </c>
       <c r="P1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Q1" t="s">
         <v>1</v>
@@ -1045,19 +1045,19 @@
         <v>12</v>
       </c>
       <c r="U1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="V1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="W1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="X1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="Y1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.2">
@@ -1121,22 +1121,22 @@
         <v>15</v>
       </c>
       <c r="T2" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="U2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="V2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="W2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="X2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="Y2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.2">
@@ -1200,22 +1200,22 @@
         <v>15</v>
       </c>
       <c r="T3" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="U3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="V3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="W3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="X3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="Y3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.2">
@@ -1279,22 +1279,22 @@
         <v>15</v>
       </c>
       <c r="T4" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="U4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="V4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="W4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="X4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="Y4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.2">
@@ -1358,22 +1358,22 @@
         <v>15</v>
       </c>
       <c r="T5" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="U5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="V5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="W5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="X5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="Y5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.2">
@@ -1437,22 +1437,22 @@
         <v>15</v>
       </c>
       <c r="T6" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="U6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="V6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="W6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="X6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="Y6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.2">
@@ -1516,22 +1516,22 @@
         <v>15</v>
       </c>
       <c r="T7" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="U7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="V7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="W7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="X7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="Y7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.2">
@@ -1595,22 +1595,22 @@
         <v>15</v>
       </c>
       <c r="T8" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="U8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="V8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="W8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="X8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="Y8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.2">
@@ -1674,22 +1674,22 @@
         <v>15</v>
       </c>
       <c r="T9" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="U9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="V9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="W9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="X9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="Y9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:25" x14ac:dyDescent="0.2">
@@ -1753,22 +1753,22 @@
         <v>15</v>
       </c>
       <c r="T10" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="U10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="V10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="W10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="X10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="Y10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="11" spans="1:25" x14ac:dyDescent="0.2">
@@ -1832,22 +1832,22 @@
         <v>15</v>
       </c>
       <c r="T11" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="U11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="V11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="W11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="X11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="Y11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12" spans="1:25" x14ac:dyDescent="0.2">
@@ -1911,22 +1911,22 @@
         <v>15</v>
       </c>
       <c r="T12" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="U12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="V12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="W12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="X12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="Y12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="13" spans="1:25" x14ac:dyDescent="0.2">
@@ -1990,22 +1990,22 @@
         <v>15</v>
       </c>
       <c r="T13" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="U13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="V13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="W13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="X13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="Y13" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="14" spans="1:25" x14ac:dyDescent="0.2">
@@ -2069,22 +2069,22 @@
         <v>15</v>
       </c>
       <c r="T14" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="U14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="V14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="W14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="X14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="Y14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="15" spans="1:25" x14ac:dyDescent="0.2">
@@ -2148,22 +2148,22 @@
         <v>15</v>
       </c>
       <c r="T15" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="U15" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="V15" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="W15" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="X15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="Y15" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="16" spans="1:25" x14ac:dyDescent="0.2">
@@ -2227,22 +2227,22 @@
         <v>15</v>
       </c>
       <c r="T16" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="U16" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="V16" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="W16" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="X16" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="Y16" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="17" spans="1:25" x14ac:dyDescent="0.2">
@@ -2306,22 +2306,22 @@
         <v>15</v>
       </c>
       <c r="T17" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="U17" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="V17" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="W17" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="X17" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="Y17" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="18" spans="1:25" x14ac:dyDescent="0.2">
@@ -2385,22 +2385,22 @@
         <v>15</v>
       </c>
       <c r="T18" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="U18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="V18" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="W18" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="X18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="Y18" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="19" spans="1:25" x14ac:dyDescent="0.2">
@@ -2464,22 +2464,22 @@
         <v>15</v>
       </c>
       <c r="T19" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="U19" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="V19" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="W19" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="X19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="Y19" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="20" spans="1:25" x14ac:dyDescent="0.2">
@@ -2543,22 +2543,22 @@
         <v>15</v>
       </c>
       <c r="T20" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="U20" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="V20" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="W20" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="X20" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="Y20" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="21" spans="1:25" x14ac:dyDescent="0.2">
@@ -2622,22 +2622,22 @@
         <v>15</v>
       </c>
       <c r="T21" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="U21" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="V21" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="W21" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="X21" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="Y21" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="22" spans="1:25" x14ac:dyDescent="0.2">
@@ -2701,22 +2701,22 @@
         <v>15</v>
       </c>
       <c r="T22" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="U22" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="V22" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="W22" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="X22" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="Y22" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="23" spans="1:25" x14ac:dyDescent="0.2">
@@ -2780,22 +2780,22 @@
         <v>15</v>
       </c>
       <c r="T23" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="U23" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="V23" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="W23" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="X23" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="Y23" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="24" spans="1:25" x14ac:dyDescent="0.2">
@@ -2859,22 +2859,22 @@
         <v>15</v>
       </c>
       <c r="T24" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="U24" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="V24" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="W24" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="X24" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="Y24" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="25" spans="1:25" x14ac:dyDescent="0.2">
@@ -2938,22 +2938,22 @@
         <v>15</v>
       </c>
       <c r="T25" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="U25" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="V25" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="W25" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="X25" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="Y25" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="26" spans="1:25" x14ac:dyDescent="0.2">
@@ -3017,22 +3017,22 @@
         <v>15</v>
       </c>
       <c r="T26" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="U26" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="V26" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="W26" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="X26" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="Y26" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="27" spans="1:25" x14ac:dyDescent="0.2">
@@ -3096,22 +3096,22 @@
         <v>15</v>
       </c>
       <c r="T27" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="U27" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="V27" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="W27" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="X27" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="Y27" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="28" spans="1:25" x14ac:dyDescent="0.2">
@@ -3175,22 +3175,22 @@
         <v>15</v>
       </c>
       <c r="T28" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="U28" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="V28" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="W28" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="X28" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="Y28" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="29" spans="1:25" x14ac:dyDescent="0.2">
@@ -3254,22 +3254,22 @@
         <v>15</v>
       </c>
       <c r="T29" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="U29" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="V29" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="W29" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="X29" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="Y29" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="30" spans="1:25" x14ac:dyDescent="0.2">
@@ -3333,22 +3333,22 @@
         <v>15</v>
       </c>
       <c r="T30" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="U30" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="V30" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="W30" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="X30" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="Y30" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="31" spans="1:25" x14ac:dyDescent="0.2">
@@ -3412,22 +3412,22 @@
         <v>15</v>
       </c>
       <c r="T31" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="U31" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="V31" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="W31" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="X31" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="Y31" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="32" spans="1:25" x14ac:dyDescent="0.2">
@@ -3491,22 +3491,22 @@
         <v>15</v>
       </c>
       <c r="T32" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="U32" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="V32" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="W32" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="X32" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="Y32" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="33" spans="1:25" x14ac:dyDescent="0.2">
@@ -3570,22 +3570,22 @@
         <v>15</v>
       </c>
       <c r="T33" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="U33" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="V33" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="W33" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="X33" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="Y33" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="34" spans="1:25" x14ac:dyDescent="0.2">
@@ -3649,22 +3649,22 @@
         <v>15</v>
       </c>
       <c r="T34" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="U34" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="V34" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="W34" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="X34" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="Y34" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
